--- a/abastecimentos_07-2024.xlsx
+++ b/abastecimentos_07-2024.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="44">
   <si>
     <t>Data Abastecimento</t>
   </si>
@@ -540,7 +540,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:J156"/>
+  <dimension ref="B2:J179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -907,7 +907,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>45496.31385416667</v>
+        <v>45492.773611111115</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -916,27 +916,27 @@
         <v>10</v>
       </c>
       <c r="E14" s="4">
-        <v>13.73</v>
+        <v>200</v>
       </c>
       <c r="F14" s="4">
-        <v>1275</v>
+        <v>865</v>
       </c>
       <c r="G14" s="4">
-        <v>92.86235</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>337115</v>
+        <v>336705</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14" s="4">
-        <v>75.8047</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>45496.323599537034</v>
+        <v>45496.31385416667</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
@@ -945,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="4">
-        <v>237.64</v>
+        <v>13.73</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>5.96547</v>
       </c>
       <c r="H15" s="4">
         <v>337115</v>
@@ -960,12 +960,12 @@
         <v>11</v>
       </c>
       <c r="J15" s="4">
-        <v>1312.33125</v>
+        <v>75.8047</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>45502.462488425925</v>
+        <v>45496.323599537034</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
@@ -974,143 +974,143 @@
         <v>10</v>
       </c>
       <c r="E16" s="4">
-        <v>379.22</v>
+        <v>237.64</v>
       </c>
       <c r="F16" s="4">
-        <v>3078</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>8.11666</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>340193</v>
+        <v>337115</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="4">
-        <v>2093.71154</v>
+        <v>1312.98761</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>45475.45951388888</v>
+        <v>45498.413194444445</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4">
-        <v>430.63</v>
+        <v>200</v>
       </c>
       <c r="F17" s="4">
-        <v>419</v>
+        <v>1125</v>
       </c>
       <c r="G17" s="4">
-        <v>2.4642</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>385962</v>
+        <v>338240</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="4">
-        <v>2365.01565</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>45477.427777777775</v>
+        <v>45499.43541666667</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4">
-        <v>200</v>
+        <v>383</v>
       </c>
       <c r="F18" s="4">
-        <v>1136</v>
+        <v>415</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>2.64151</v>
       </c>
       <c r="H18" s="4">
-        <v>387098</v>
+        <v>338655</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="4">
-        <v>1318</v>
+        <v>2114.5813</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>45478.306180555555</v>
+        <v>45501.39444444445</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4">
-        <v>434.02</v>
+        <v>200</v>
       </c>
       <c r="F19" s="4">
-        <v>414</v>
+        <v>1126</v>
       </c>
       <c r="G19" s="4">
-        <v>2.44472</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>387512</v>
+        <v>339781</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="4">
-        <v>2386.21568</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>45480.413194444445</v>
+        <v>45502.462488425925</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4">
-        <v>200</v>
+        <v>379.22</v>
       </c>
       <c r="F20" s="4">
-        <v>1142</v>
+        <v>412</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>2.6553</v>
       </c>
       <c r="H20" s="4">
-        <v>388654</v>
+        <v>340193</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="4">
-        <v>1318</v>
+        <v>2093.71154</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>45481.759618055556</v>
+        <v>45475.45951388888</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -1119,27 +1119,27 @@
         <v>14</v>
       </c>
       <c r="E21" s="4">
-        <v>448.42</v>
+        <v>430.63</v>
       </c>
       <c r="F21" s="4">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G21" s="4">
-        <v>2.40585</v>
+        <v>2.4642</v>
       </c>
       <c r="H21" s="4">
-        <v>389072</v>
+        <v>385962</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="4">
-        <v>2470.09599</v>
+        <v>2365.01565</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>45484.413888888885</v>
+        <v>45477.427777777775</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1148,27 +1148,27 @@
         <v>14</v>
       </c>
       <c r="E22" s="4">
-        <v>200.01</v>
+        <v>200</v>
       </c>
       <c r="F22" s="4">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>390210</v>
+        <v>387098</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="4">
-        <v>1318.0659</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>45485.30960648148</v>
+        <v>45478.306180555555</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -1177,27 +1177,27 @@
         <v>14</v>
       </c>
       <c r="E23" s="4">
-        <v>427.48</v>
+        <v>434.02</v>
       </c>
       <c r="F23" s="4">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G23" s="4">
-        <v>2.47175</v>
+        <v>2.44472</v>
       </c>
       <c r="H23" s="4">
-        <v>390623</v>
+        <v>387512</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J23" s="4">
-        <v>2359.71438</v>
+        <v>2386.21568</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>45486.64444444445</v>
+        <v>45480.413194444445</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
@@ -1209,13 +1209,13 @@
         <v>200</v>
       </c>
       <c r="F24" s="4">
-        <v>887</v>
+        <v>1142</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>391510</v>
+        <v>388654</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>12</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>45488.588368055556</v>
+        <v>45481.759618055556</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
@@ -1235,27 +1235,27 @@
         <v>14</v>
       </c>
       <c r="E25" s="4">
-        <v>423.16</v>
+        <v>448.42</v>
       </c>
       <c r="F25" s="4">
         <v>418</v>
       </c>
       <c r="G25" s="4">
-        <v>2.09417</v>
+        <v>2.40585</v>
       </c>
       <c r="H25" s="4">
-        <v>391928</v>
+        <v>389072</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J25" s="4">
-        <v>2336.19504</v>
+        <v>2470.09599</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>45490.38125</v>
+        <v>45484.413888888885</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
@@ -1264,27 +1264,27 @@
         <v>14</v>
       </c>
       <c r="E26" s="4">
-        <v>200</v>
+        <v>200.01</v>
       </c>
       <c r="F26" s="4">
-        <v>1092</v>
+        <v>1138</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>393020</v>
+        <v>390210</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="4">
-        <v>1318</v>
+        <v>1318.0659</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>45491.50483796296</v>
+        <v>45485.30960648148</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -1293,27 +1293,27 @@
         <v>14</v>
       </c>
       <c r="E27" s="4">
-        <v>405.05</v>
+        <v>427.48</v>
       </c>
       <c r="F27" s="4">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G27" s="4">
-        <v>2.49566</v>
+        <v>2.47175</v>
       </c>
       <c r="H27" s="4">
-        <v>393438</v>
+        <v>390623</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="4">
-        <v>2236.32059</v>
+        <v>2359.71438</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>45493.40555555555</v>
+        <v>45486.64444444445</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
@@ -1325,13 +1325,13 @@
         <v>200</v>
       </c>
       <c r="F28" s="4">
-        <v>1136</v>
+        <v>887</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>394574</v>
+        <v>391510</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>12</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>45496.65240740741</v>
+        <v>45488.588368055556</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
@@ -1351,288 +1351,288 @@
         <v>14</v>
       </c>
       <c r="E29" s="4">
-        <v>455.01</v>
+        <v>423.16</v>
       </c>
       <c r="F29" s="4">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G29" s="4">
-        <v>2.38317</v>
+        <v>2.09417</v>
       </c>
       <c r="H29" s="4">
-        <v>394999</v>
+        <v>391928</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J29" s="4">
-        <v>2512.72447</v>
+        <v>2336.19504</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>45475.63483796296</v>
+        <v>45490.38125</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4">
-        <v>476.86</v>
+        <v>200</v>
       </c>
       <c r="F30" s="4">
-        <v>418</v>
+        <v>1092</v>
       </c>
       <c r="G30" s="4">
-        <v>2.65731</v>
+        <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>551065</v>
+        <v>393020</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" s="4">
-        <v>2622.74431</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <v>45478.40347222222</v>
+        <v>45491.50483796296</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4">
-        <v>100</v>
+        <v>405.05</v>
       </c>
       <c r="F31" s="4">
-        <v>1075</v>
+        <v>418</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>2.49566</v>
       </c>
       <c r="H31" s="4">
-        <v>552140</v>
+        <v>393438</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" s="4">
-        <v>659</v>
+        <v>2236.32059</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
-        <v>45480.37603009259</v>
+        <v>45493.40555555555</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4">
-        <v>469.54</v>
+        <v>200</v>
       </c>
       <c r="F32" s="4">
-        <v>411</v>
+        <v>1136</v>
       </c>
       <c r="G32" s="4">
-        <v>2.60912</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4">
-        <v>552551</v>
+        <v>394574</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32" s="4">
-        <v>2585.5196</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
-        <v>45482.40069444444</v>
+        <v>45496.65240740741</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4">
-        <v>100</v>
+        <v>455.01</v>
       </c>
       <c r="F33" s="4">
-        <v>1075</v>
+        <v>425</v>
       </c>
       <c r="G33" s="4">
-        <v>0</v>
+        <v>2.38317</v>
       </c>
       <c r="H33" s="4">
-        <v>553626</v>
+        <v>394999</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" s="4">
-        <v>659</v>
+        <v>2512.72447</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>45483.48851851852</v>
+        <v>45498.41458333333</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4">
-        <v>506.67</v>
+        <v>200.02</v>
       </c>
       <c r="F34" s="4">
-        <v>413</v>
+        <v>1136</v>
       </c>
       <c r="G34" s="4">
-        <v>2.45273</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>554039</v>
+        <v>396135</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J34" s="4">
-        <v>2789.97329</v>
+        <v>1318.1318</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <v>45485.410416666666</v>
+        <v>45499.39583333333</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4">
-        <v>100.19</v>
+        <v>427</v>
       </c>
       <c r="F35" s="4">
-        <v>1118</v>
+        <v>436</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>2.5071</v>
       </c>
       <c r="H35" s="4">
-        <v>555157</v>
+        <v>396571</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" s="4">
-        <v>660.2521</v>
+        <v>2357.5097</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <v>45486.54052083333</v>
+        <v>45501.38888888889</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" s="4">
-        <v>529.45</v>
+        <v>200.03</v>
       </c>
       <c r="F36" s="4">
-        <v>408</v>
+        <v>1092</v>
       </c>
       <c r="G36" s="4">
-        <v>2.42361</v>
+        <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>555565</v>
+        <v>397663</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J36" s="4">
-        <v>2917.5201</v>
+        <v>1318.1977</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <v>45489.40625</v>
+        <v>45502.72793981481</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4">
-        <v>100</v>
+        <v>508.97</v>
       </c>
       <c r="F37" s="4">
-        <v>1118</v>
+        <v>418</v>
       </c>
       <c r="G37" s="4">
-        <v>0</v>
+        <v>2.12976</v>
       </c>
       <c r="H37" s="4">
-        <v>556683</v>
+        <v>398081</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37" s="4">
-        <v>659</v>
+        <v>2810.07427</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <v>45490.495833333334</v>
+        <v>45503.85763888889</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4">
-        <v>510.04</v>
+        <v>200</v>
       </c>
       <c r="F38" s="4">
-        <v>412</v>
+        <v>872</v>
       </c>
       <c r="G38" s="4">
-        <v>2.50803</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>557095</v>
+        <v>398953</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" s="4">
-        <v>2814.62211</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <v>45492.4125</v>
+        <v>45475.63483796296</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
@@ -1641,27 +1641,27 @@
         <v>16</v>
       </c>
       <c r="E39" s="4">
-        <v>100.02</v>
+        <v>476.86</v>
       </c>
       <c r="F39" s="4">
-        <v>1119</v>
+        <v>418</v>
       </c>
       <c r="G39" s="4">
-        <v>0</v>
+        <v>2.65731</v>
       </c>
       <c r="H39" s="4">
-        <v>558214</v>
+        <v>551065</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" s="4">
-        <v>659.1318</v>
+        <v>2622.74431</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <v>45493.46178240741</v>
+        <v>45478.40347222222</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
@@ -1670,27 +1670,27 @@
         <v>16</v>
       </c>
       <c r="E40" s="4">
-        <v>514.13</v>
+        <v>100</v>
       </c>
       <c r="F40" s="4">
-        <v>413</v>
+        <v>1075</v>
       </c>
       <c r="G40" s="4">
-        <v>2.4945</v>
+        <v>0</v>
       </c>
       <c r="H40" s="4">
-        <v>558627</v>
+        <v>552140</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J40" s="4">
-        <v>2839.20478</v>
+        <v>659</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <v>45496.40833333333</v>
+        <v>45480.37603009259</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>15</v>
@@ -1699,27 +1699,27 @@
         <v>16</v>
       </c>
       <c r="E41" s="4">
-        <v>100.01</v>
+        <v>469.54</v>
       </c>
       <c r="F41" s="4">
-        <v>1118</v>
+        <v>411</v>
       </c>
       <c r="G41" s="4">
-        <v>0</v>
+        <v>2.60912</v>
       </c>
       <c r="H41" s="4">
-        <v>559745</v>
+        <v>552551</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J41" s="4">
-        <v>659.0659</v>
+        <v>2585.5196</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <v>45497.5875462963</v>
+        <v>45482.40069444444</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>15</v>
@@ -1728,27 +1728,27 @@
         <v>16</v>
       </c>
       <c r="E42" s="4">
-        <v>489.14</v>
+        <v>100</v>
       </c>
       <c r="F42" s="4">
-        <v>419</v>
+        <v>1075</v>
       </c>
       <c r="G42" s="4">
-        <v>2.60884</v>
+        <v>0</v>
       </c>
       <c r="H42" s="4">
-        <v>560164</v>
+        <v>553626</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J42" s="4">
-        <v>2701.20228</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
-        <v>45500.3146412037</v>
+        <v>45483.48851851852</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>15</v>
@@ -1757,375 +1757,375 @@
         <v>16</v>
       </c>
       <c r="E43" s="4">
-        <v>486.02</v>
+        <v>506.67</v>
       </c>
       <c r="F43" s="4">
-        <v>1522</v>
+        <v>413</v>
       </c>
       <c r="G43" s="4">
-        <v>3.13156</v>
+        <v>2.45273</v>
       </c>
       <c r="H43" s="4">
-        <v>561686</v>
+        <v>554039</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J43" s="4">
-        <v>2685.31396</v>
+        <v>2789.97329</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <v>45474.337002314816</v>
+        <v>45485.410416666666</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44" s="4">
-        <v>456.91</v>
+        <v>100.19</v>
       </c>
       <c r="F44" s="4">
-        <v>405</v>
+        <v>1118</v>
       </c>
       <c r="G44" s="4">
-        <v>2.72575</v>
+        <v>0</v>
       </c>
       <c r="H44" s="4">
-        <v>572102</v>
+        <v>555157</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J44" s="4">
-        <v>2511.74393</v>
+        <v>660.2521</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <v>45476.43125</v>
+        <v>45486.54052083333</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45" s="4">
-        <v>100</v>
+        <v>529.45</v>
       </c>
       <c r="F45" s="4">
-        <v>1117</v>
+        <v>408</v>
       </c>
       <c r="G45" s="4">
-        <v>0</v>
+        <v>2.42361</v>
       </c>
       <c r="H45" s="4">
-        <v>573219</v>
+        <v>555565</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" s="4">
-        <v>659</v>
+        <v>2917.5201</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <v>45477.46415509259</v>
+        <v>45489.40625</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46" s="4">
-        <v>513.37</v>
+        <v>100</v>
       </c>
       <c r="F46" s="4">
-        <v>410</v>
+        <v>1118</v>
       </c>
       <c r="G46" s="4">
-        <v>2.48953</v>
+        <v>0</v>
       </c>
       <c r="H46" s="4">
-        <v>573629</v>
+        <v>556683</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J46" s="4">
-        <v>2823.5504</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
-        <v>45478.788888888885</v>
+        <v>45490.495833333334</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47" s="4">
-        <v>100</v>
+        <v>510.04</v>
       </c>
       <c r="F47" s="4">
-        <v>854</v>
+        <v>412</v>
       </c>
       <c r="G47" s="4">
-        <v>0</v>
+        <v>2.50803</v>
       </c>
       <c r="H47" s="4">
-        <v>574483</v>
+        <v>557095</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J47" s="4">
-        <v>659</v>
+        <v>2814.62211</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <v>45482.482199074075</v>
+        <v>45492.4125</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48" s="4">
-        <v>398.78</v>
+        <v>100.02</v>
       </c>
       <c r="F48" s="4">
-        <v>412</v>
+        <v>1119</v>
       </c>
       <c r="G48" s="4">
-        <v>2.53819</v>
+        <v>0</v>
       </c>
       <c r="H48" s="4">
-        <v>574895</v>
+        <v>558214</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J48" s="4">
-        <v>2195.87808</v>
+        <v>659.1318</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
-        <v>45484.42222222222</v>
+        <v>45493.46178240741</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" s="4">
-        <v>100</v>
+        <v>514.13</v>
       </c>
       <c r="F49" s="4">
-        <v>1114</v>
+        <v>413</v>
       </c>
       <c r="G49" s="4">
-        <v>0</v>
+        <v>2.4945</v>
       </c>
       <c r="H49" s="4">
-        <v>576009</v>
+        <v>558627</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J49" s="4">
-        <v>659</v>
+        <v>2839.20478</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
-        <v>45485.633611111116</v>
+        <v>45496.40833333333</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50" s="4">
-        <v>470.7</v>
+        <v>100.01</v>
       </c>
       <c r="F50" s="4">
-        <v>410</v>
+        <v>1118</v>
       </c>
       <c r="G50" s="4">
-        <v>2.6704</v>
+        <v>0</v>
       </c>
       <c r="H50" s="4">
-        <v>576419</v>
+        <v>559745</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J50" s="4">
-        <v>2591.90484</v>
+        <v>659.0659</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
-        <v>45475.50782407407</v>
+        <v>45497.5875462963</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E51" s="4">
-        <v>628.46</v>
+        <v>489.14</v>
       </c>
       <c r="F51" s="4">
-        <v>1552</v>
+        <v>419</v>
       </c>
       <c r="G51" s="4">
-        <v>2.46953</v>
+        <v>2.60884</v>
       </c>
       <c r="H51" s="4">
-        <v>577100</v>
+        <v>560164</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J51" s="4">
-        <v>3451.49604</v>
+        <v>2701.20228</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
-        <v>45487.40069444444</v>
+        <v>45499.40347222222</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52" s="4">
-        <v>100</v>
+        <v>100.17</v>
       </c>
       <c r="F52" s="4">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <v>577532</v>
+        <v>561279</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J52" s="4">
-        <v>659</v>
+        <v>660.1203</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
-        <v>45488.63680555555</v>
+        <v>45500.3146412037</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53" s="4">
-        <v>478.34</v>
+        <v>486.02</v>
       </c>
       <c r="F53" s="4">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G53" s="4">
-        <v>2.62648</v>
+        <v>2.59643</v>
       </c>
       <c r="H53" s="4">
-        <v>577938</v>
+        <v>561686</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J53" s="4">
-        <v>2633.97443</v>
+        <v>2685.65434</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
-        <v>45478.44730324074</v>
+        <v>45503.41111111111</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E54" s="4">
-        <v>631.98</v>
+        <v>100</v>
       </c>
       <c r="F54" s="4">
-        <v>1552</v>
+        <v>1125</v>
       </c>
       <c r="G54" s="4">
-        <v>2.45577</v>
+        <v>0</v>
       </c>
       <c r="H54" s="4">
-        <v>578652</v>
+        <v>562811</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J54" s="4">
-        <v>3470.82784</v>
+        <v>659</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
-        <v>45489.87291666667</v>
+        <v>45504.461875</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55" s="4">
-        <v>100</v>
+        <v>464</v>
       </c>
       <c r="F55" s="4">
-        <v>853</v>
+        <v>407</v>
       </c>
       <c r="G55" s="4">
-        <v>0</v>
+        <v>2.71631</v>
       </c>
       <c r="H55" s="4">
-        <v>578791</v>
+        <v>563218</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J55" s="4">
-        <v>659</v>
+        <v>2564.29136</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
-        <v>45490.532268518524</v>
+        <v>45474.337002314816</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -2134,85 +2134,85 @@
         <v>18</v>
       </c>
       <c r="E56" s="4">
-        <v>416.29</v>
+        <v>456.91</v>
       </c>
       <c r="F56" s="4">
         <v>405</v>
       </c>
       <c r="G56" s="4">
-        <v>2.43662</v>
+        <v>2.72575</v>
       </c>
       <c r="H56" s="4">
-        <v>579196</v>
+        <v>572102</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J56" s="4">
-        <v>2297.26891</v>
+        <v>2511.74393</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
-        <v>45481.699942129635</v>
+        <v>45476.43125</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E57" s="4">
-        <v>328.1</v>
+        <v>100</v>
       </c>
       <c r="F57" s="4">
-        <v>1288</v>
+        <v>1117</v>
       </c>
       <c r="G57" s="4">
-        <v>3.92563</v>
+        <v>0</v>
       </c>
       <c r="H57" s="4">
-        <v>579940</v>
+        <v>573219</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J57" s="4">
-        <v>1804.55984</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
-        <v>45481.71582175926</v>
+        <v>45477.46415509259</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E58" s="4">
-        <v>217.98</v>
+        <v>513.37</v>
       </c>
       <c r="F58" s="4">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="G58" s="4">
-        <v>0</v>
+        <v>2.48953</v>
       </c>
       <c r="H58" s="4">
-        <v>579940</v>
+        <v>573629</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J58" s="4">
-        <v>1198.89654</v>
+        <v>2823.5504</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
-        <v>45493.4125</v>
+        <v>45478.788888888885</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>17</v>
@@ -2224,13 +2224,13 @@
         <v>100</v>
       </c>
       <c r="F59" s="4">
-        <v>1111</v>
+        <v>854</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <v>580307</v>
+        <v>574483</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>12</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
-        <v>45496.41416666667</v>
+        <v>45482.482199074075</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
@@ -2250,56 +2250,56 @@
         <v>18</v>
       </c>
       <c r="E60" s="4">
-        <v>475.7</v>
+        <v>398.78</v>
       </c>
       <c r="F60" s="4">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G60" s="4">
-        <v>2.642</v>
+        <v>2.53819</v>
       </c>
       <c r="H60" s="4">
-        <v>580717</v>
+        <v>574895</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J60" s="4">
-        <v>2627.92807</v>
+        <v>2195.87808</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
-        <v>45484.62769675926</v>
+        <v>45484.42222222222</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E61" s="4">
-        <v>635.33</v>
+        <v>100</v>
       </c>
       <c r="F61" s="4">
-        <v>1553</v>
+        <v>1114</v>
       </c>
       <c r="G61" s="4">
-        <v>2.4444</v>
+        <v>0</v>
       </c>
       <c r="H61" s="4">
-        <v>581493</v>
+        <v>576009</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J61" s="4">
-        <v>3498.43829</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
-        <v>45498.40416666667</v>
+        <v>45485.633611111116</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>17</v>
@@ -2308,85 +2308,85 @@
         <v>18</v>
       </c>
       <c r="E62" s="4">
-        <v>100</v>
+        <v>470.7</v>
       </c>
       <c r="F62" s="4">
-        <v>1072</v>
+        <v>410</v>
       </c>
       <c r="G62" s="4">
-        <v>10.72</v>
+        <v>2.6704</v>
       </c>
       <c r="H62" s="4">
-        <v>581789</v>
+        <v>576419</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J62" s="4">
-        <v>659</v>
+        <v>2591.90484</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
-        <v>45499.34861111111</v>
+        <v>45475.50782407407</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E63" s="4">
-        <v>464.48</v>
+        <v>628.46</v>
       </c>
       <c r="F63" s="4">
-        <v>423</v>
+        <v>1552</v>
       </c>
       <c r="G63" s="4">
-        <v>0.9107</v>
+        <v>2.46953</v>
       </c>
       <c r="H63" s="4">
-        <v>582212</v>
+        <v>577100</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J63" s="4">
-        <v>2566.30401</v>
+        <v>3451.49604</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
-        <v>45489.37438657407</v>
+        <v>45487.40069444444</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E64" s="4">
-        <v>526.08</v>
+        <v>100</v>
       </c>
       <c r="F64" s="4">
-        <v>1290</v>
+        <v>1113</v>
       </c>
       <c r="G64" s="4">
-        <v>2.4521</v>
+        <v>0</v>
       </c>
       <c r="H64" s="4">
-        <v>582783</v>
+        <v>577532</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J64" s="4">
-        <v>2897.94324</v>
+        <v>659</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
-        <v>45501.39791666667</v>
+        <v>45488.63680555555</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -2395,114 +2395,114 @@
         <v>18</v>
       </c>
       <c r="E65" s="4">
-        <v>100</v>
+        <v>478.34</v>
       </c>
       <c r="F65" s="4">
-        <v>1136</v>
+        <v>406</v>
       </c>
       <c r="G65" s="4">
-        <v>0</v>
+        <v>2.62648</v>
       </c>
       <c r="H65" s="4">
-        <v>583348</v>
+        <v>577938</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J65" s="4">
-        <v>659</v>
+        <v>2633.97443</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
-        <v>45502.64613425926</v>
+        <v>45478.44730324074</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E66" s="4">
-        <v>500.13</v>
+        <v>631.98</v>
       </c>
       <c r="F66" s="4">
-        <v>430</v>
+        <v>1552</v>
       </c>
       <c r="G66" s="4">
-        <v>2.60943</v>
+        <v>2.45577</v>
       </c>
       <c r="H66" s="4">
-        <v>583778</v>
+        <v>578652</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J66" s="4">
-        <v>2763.27326</v>
+        <v>3470.82784</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
-        <v>45492.32456018518</v>
+        <v>45489.87291666667</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E67" s="4">
-        <v>528.91</v>
+        <v>100</v>
       </c>
       <c r="F67" s="4">
-        <v>1284</v>
+        <v>853</v>
       </c>
       <c r="G67" s="4">
-        <v>2.42763</v>
+        <v>0</v>
       </c>
       <c r="H67" s="4">
-        <v>584067</v>
+        <v>578791</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J67" s="4">
-        <v>2916.81171</v>
+        <v>659</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
-        <v>45495.44162037037</v>
+        <v>45490.532268518524</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E68" s="4">
-        <v>346.25</v>
+        <v>416.29</v>
       </c>
       <c r="F68" s="4">
-        <v>1289</v>
+        <v>405</v>
       </c>
       <c r="G68" s="4">
-        <v>3.72274</v>
+        <v>2.43662</v>
       </c>
       <c r="H68" s="4">
-        <v>585356</v>
+        <v>579196</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J68" s="4">
-        <v>1911.68088</v>
+        <v>2297.26891</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
-        <v>45498.45086805556</v>
+        <v>45481.699942129635</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>19</v>
@@ -2511,2544 +2511,3211 @@
         <v>20</v>
       </c>
       <c r="E69" s="4">
-        <v>495.52</v>
+        <v>328.1</v>
       </c>
       <c r="F69" s="4">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G69" s="4">
-        <v>2.59727</v>
+        <v>3.92563</v>
       </c>
       <c r="H69" s="4">
-        <v>586643</v>
+        <v>579940</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J69" s="4">
-        <v>2736.43487</v>
+        <v>1804.55984</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
-        <v>45474.61586805555</v>
+        <v>45481.71582175926</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="4">
-        <v>729.41</v>
+        <v>217.98</v>
       </c>
       <c r="F70" s="4">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="G70" s="4">
-        <v>2.09759</v>
+        <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>593684</v>
+        <v>579940</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J70" s="4">
-        <v>4009.74183</v>
+        <v>1198.89654</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
-        <v>45477.34646990741</v>
+        <v>45493.4125</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E71" s="4">
-        <v>669.24</v>
+        <v>100</v>
       </c>
       <c r="F71" s="4">
-        <v>1524</v>
+        <v>1111</v>
       </c>
       <c r="G71" s="4">
-        <v>2.27721</v>
+        <v>0</v>
       </c>
       <c r="H71" s="4">
-        <v>595208</v>
+        <v>580307</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J71" s="4">
-        <v>3675.45939</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
-        <v>45482.449328703704</v>
+        <v>45496.41416666667</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E72" s="4">
-        <v>599.83</v>
+        <v>475.7</v>
       </c>
       <c r="F72" s="4">
-        <v>1271</v>
+        <v>410</v>
       </c>
       <c r="G72" s="4">
-        <v>2.11893</v>
+        <v>2.642</v>
       </c>
       <c r="H72" s="4">
-        <v>596479</v>
+        <v>580717</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J72" s="4">
-        <v>3304.19954</v>
+        <v>2627.92807</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
-        <v>45485.416712962964</v>
+        <v>45484.62769675926</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E73" s="4">
-        <v>688.82</v>
+        <v>635.33</v>
       </c>
       <c r="F73" s="4">
-        <v>1530</v>
+        <v>1553</v>
       </c>
       <c r="G73" s="4">
-        <v>2.22119</v>
+        <v>2.4444</v>
       </c>
       <c r="H73" s="4">
-        <v>598009</v>
+        <v>581493</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J73" s="4">
-        <v>3794.4063</v>
+        <v>3498.43829</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
-        <v>45488.463229166664</v>
+        <v>45498.40416666667</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E74" s="4">
-        <v>577.54</v>
+        <v>100</v>
       </c>
       <c r="F74" s="4">
-        <v>1266</v>
+        <v>1072</v>
       </c>
       <c r="G74" s="4">
-        <v>2.19206</v>
+        <v>10.72</v>
       </c>
       <c r="H74" s="4">
-        <v>599275</v>
+        <v>581789</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J74" s="4">
-        <v>3180.21823</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
-        <v>45491.30596064815</v>
+        <v>45499.34861111111</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E75" s="4">
-        <v>653.87</v>
+        <v>464.48</v>
       </c>
       <c r="F75" s="4">
-        <v>1524</v>
+        <v>423</v>
       </c>
       <c r="G75" s="4">
-        <v>2.33074</v>
+        <v>0.9107</v>
       </c>
       <c r="H75" s="4">
-        <v>600799</v>
+        <v>582212</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J75" s="4">
-        <v>3608.33582</v>
+        <v>2566.62839</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
-        <v>45496.575937500005</v>
+        <v>45489.37438657407</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E76" s="4">
-        <v>676.21</v>
+        <v>526.08</v>
       </c>
       <c r="F76" s="4">
-        <v>1530</v>
+        <v>1290</v>
       </c>
       <c r="G76" s="4">
-        <v>2.26261</v>
+        <v>2.4521</v>
       </c>
       <c r="H76" s="4">
-        <v>602329</v>
+        <v>582783</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J76" s="4">
-        <v>3734.26829</v>
+        <v>2897.94324</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
-        <v>45499.64795138889</v>
+        <v>45501.39791666667</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E77" s="4">
-        <v>669.9</v>
+        <v>100</v>
       </c>
       <c r="F77" s="4">
-        <v>1531</v>
+        <v>1136</v>
       </c>
       <c r="G77" s="4">
-        <v>2.28542</v>
+        <v>0</v>
       </c>
       <c r="H77" s="4">
-        <v>603860</v>
+        <v>583348</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J77" s="4">
-        <v>3701.27119</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
-        <v>45475.41082175926</v>
+        <v>45502.64613425926</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E78" s="4">
-        <v>560.63</v>
+        <v>500.13</v>
       </c>
       <c r="F78" s="4">
-        <v>1520</v>
+        <v>430</v>
       </c>
       <c r="G78" s="4">
-        <v>2.71124</v>
+        <v>2.60943</v>
       </c>
       <c r="H78" s="4">
-        <v>688547</v>
+        <v>583778</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J78" s="4">
-        <v>3081.91766</v>
+        <v>2763.27326</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
-        <v>45479.3077199074</v>
+        <v>45492.32456018518</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E79" s="4">
-        <v>576.3</v>
+        <v>528.91</v>
       </c>
       <c r="F79" s="4">
-        <v>1516</v>
+        <v>1284</v>
       </c>
       <c r="G79" s="4">
-        <v>2.63057</v>
+        <v>2.42763</v>
       </c>
       <c r="H79" s="4">
-        <v>690063</v>
+        <v>584067</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="4">
-        <v>3169.66729</v>
+        <v>2916.81171</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
-        <v>45484.286145833335</v>
+        <v>45504.40763888889</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E80" s="4">
-        <v>546.13</v>
+        <v>100.56</v>
       </c>
       <c r="F80" s="4">
-        <v>1477</v>
+        <v>1112</v>
       </c>
       <c r="G80" s="4">
-        <v>2.70448</v>
+        <v>0</v>
       </c>
       <c r="H80" s="4">
-        <v>691540</v>
+        <v>584890</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J80" s="4">
-        <v>3007.25938</v>
+        <v>662.6904</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
-        <v>45489.44768518519</v>
+        <v>45495.44162037037</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E81" s="4">
-        <v>575.01</v>
+        <v>346.25</v>
       </c>
       <c r="F81" s="4">
-        <v>1476</v>
+        <v>1289</v>
       </c>
       <c r="G81" s="4">
-        <v>2.56691</v>
+        <v>3.72274</v>
       </c>
       <c r="H81" s="4">
-        <v>693016</v>
+        <v>585356</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J81" s="4">
-        <v>3170.80639</v>
+        <v>1911.68088</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
-        <v>45492.3044212963</v>
+        <v>45498.45086805556</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E82" s="4">
-        <v>564.04</v>
+        <v>495.52</v>
       </c>
       <c r="F82" s="4">
-        <v>1516</v>
+        <v>1287</v>
       </c>
       <c r="G82" s="4">
-        <v>2.68775</v>
+        <v>2.59727</v>
       </c>
       <c r="H82" s="4">
-        <v>694532</v>
+        <v>586643</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J82" s="4">
-        <v>3112.61526</v>
+        <v>2736.43487</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
-        <v>45475.6571875</v>
+        <v>45503.467928240745</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E83" s="4">
-        <v>632.04</v>
+        <v>540.09</v>
       </c>
       <c r="F83" s="4">
-        <v>1570</v>
+        <v>1289</v>
       </c>
       <c r="G83" s="4">
-        <v>2.48402</v>
+        <v>2.38664</v>
       </c>
       <c r="H83" s="4">
-        <v>695735</v>
+        <v>587932</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J83" s="4">
-        <v>3471.15736</v>
+        <v>2981.8909</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
-        <v>45495.38888888889</v>
+        <v>45474.61586805555</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E84" s="4">
-        <v>587.26</v>
+        <v>729.41</v>
       </c>
       <c r="F84" s="4">
-        <v>1516</v>
+        <v>1530</v>
       </c>
       <c r="G84" s="4">
-        <v>2.58148</v>
+        <v>2.09759</v>
       </c>
       <c r="H84" s="4">
-        <v>696048</v>
+        <v>593684</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J84" s="4">
-        <v>3243.05526</v>
+        <v>4009.74183</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
-        <v>45478.60648148148</v>
+        <v>45477.34646990741</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E85" s="4">
-        <v>67.66</v>
+        <v>669.24</v>
       </c>
       <c r="F85" s="4">
-        <v>1581</v>
+        <v>1524</v>
       </c>
       <c r="G85" s="4">
-        <v>23.36683</v>
+        <v>2.27721</v>
       </c>
       <c r="H85" s="4">
-        <v>697316</v>
+        <v>595208</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J85" s="4">
-        <v>371.58804</v>
+        <v>3675.45939</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
-        <v>45484.661053240736</v>
+        <v>45482.449328703704</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E86" s="4">
-        <v>682.23</v>
+        <v>599.83</v>
       </c>
       <c r="F86" s="4">
-        <v>90</v>
+        <v>1271</v>
       </c>
       <c r="G86" s="4">
-        <v>0.13192</v>
+        <v>2.11893</v>
       </c>
       <c r="H86" s="4">
-        <v>697406</v>
+        <v>596479</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J86" s="4">
-        <v>3756.69267</v>
+        <v>3304.19954</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
-        <v>45498.51493055555</v>
+        <v>45485.416712962964</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E87" s="4">
-        <v>602.36</v>
+        <v>688.82</v>
       </c>
       <c r="F87" s="4">
-        <v>1490</v>
+        <v>1530</v>
       </c>
       <c r="G87" s="4">
-        <v>2.4736</v>
+        <v>2.22119</v>
       </c>
       <c r="H87" s="4">
-        <v>697538</v>
+        <v>598009</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J87" s="4">
-        <v>3326.44275</v>
+        <v>3794.4063</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
-        <v>45489.680625</v>
+        <v>45488.463229166664</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E88" s="4">
-        <v>562.21</v>
+        <v>577.54</v>
       </c>
       <c r="F88" s="4">
-        <v>1308</v>
+        <v>1266</v>
       </c>
       <c r="G88" s="4">
-        <v>2.32653</v>
+        <v>2.19206</v>
       </c>
       <c r="H88" s="4">
-        <v>698714</v>
+        <v>599275</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J88" s="4">
-        <v>3100.22271</v>
+        <v>3180.21823</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
-        <v>45493.411527777775</v>
+        <v>45491.30596064815</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E89" s="4">
-        <v>636.86</v>
+        <v>653.87</v>
       </c>
       <c r="F89" s="4">
-        <v>1586</v>
+        <v>1524</v>
       </c>
       <c r="G89" s="4">
-        <v>2.49034</v>
+        <v>2.33074</v>
       </c>
       <c r="H89" s="4">
-        <v>700300</v>
+        <v>600799</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J89" s="4">
-        <v>3516.16775</v>
+        <v>3608.33582</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
-        <v>45497.61114583333</v>
+        <v>45496.575937500005</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E90" s="4">
-        <v>706.15</v>
+        <v>676.21</v>
       </c>
       <c r="F90" s="4">
-        <v>1577</v>
+        <v>1530</v>
       </c>
       <c r="G90" s="4">
-        <v>2.23324</v>
+        <v>2.26261</v>
       </c>
       <c r="H90" s="4">
-        <v>701877</v>
+        <v>602329</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J90" s="4">
-        <v>3899.60745</v>
+        <v>3734.26829</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
-        <v>45500.4940162037</v>
+        <v>45499.64795138889</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E91" s="4">
-        <v>683.1</v>
+        <v>669.9</v>
       </c>
       <c r="F91" s="4">
-        <v>1583</v>
+        <v>1531</v>
       </c>
       <c r="G91" s="4">
-        <v>2.31738</v>
+        <v>2.28542</v>
       </c>
       <c r="H91" s="4">
-        <v>703460</v>
+        <v>603860</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J91" s="4">
-        <v>3774.20264</v>
+        <v>3701.27119</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
-        <v>45476.55829861111</v>
+        <v>45504.59695601852</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E92" s="4">
-        <v>645.07</v>
+        <v>697.83</v>
       </c>
       <c r="F92" s="4">
-        <v>1575</v>
+        <v>1537</v>
       </c>
       <c r="G92" s="4">
-        <v>2.4416</v>
+        <v>2.20254</v>
       </c>
       <c r="H92" s="4">
-        <v>705242</v>
+        <v>605397</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J92" s="4">
-        <v>3547.90435</v>
+        <v>3855.58751</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
-        <v>45479.344664351855</v>
+        <v>45475.41082175926</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E93" s="4">
-        <v>565.7</v>
+        <v>560.63</v>
       </c>
       <c r="F93" s="4">
-        <v>1300</v>
+        <v>1520</v>
       </c>
       <c r="G93" s="4">
-        <v>2.29804</v>
+        <v>2.71124</v>
       </c>
       <c r="H93" s="4">
-        <v>706542</v>
+        <v>688547</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J93" s="4">
-        <v>3111.36697</v>
+        <v>3081.91766</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
-        <v>45482.5840625</v>
+        <v>45479.3077199074</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E94" s="4">
-        <v>530.88</v>
+        <v>576.3</v>
       </c>
       <c r="F94" s="4">
-        <v>1299</v>
+        <v>1516</v>
       </c>
       <c r="G94" s="4">
-        <v>2.44688</v>
+        <v>2.63057</v>
       </c>
       <c r="H94" s="4">
-        <v>707841</v>
+        <v>690063</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J94" s="4">
-        <v>2923.28541</v>
+        <v>3169.66729</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
-        <v>45486.56673611111</v>
+        <v>45484.286145833335</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E95" s="4">
-        <v>566.19</v>
+        <v>546.13</v>
       </c>
       <c r="F95" s="4">
-        <v>1307</v>
+        <v>1477</v>
       </c>
       <c r="G95" s="4">
-        <v>2.30841</v>
+        <v>2.70448</v>
       </c>
       <c r="H95" s="4">
-        <v>709148</v>
+        <v>691540</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J95" s="4">
-        <v>3117.71957</v>
+        <v>3007.25938</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
-        <v>45490.578680555554</v>
+        <v>45489.44768518519</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E96" s="4">
-        <v>601.6</v>
+        <v>575.01</v>
       </c>
       <c r="F96" s="4">
-        <v>1570</v>
+        <v>1476</v>
       </c>
       <c r="G96" s="4">
-        <v>2.60971</v>
+        <v>2.56691</v>
       </c>
       <c r="H96" s="4">
-        <v>710718</v>
+        <v>693016</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J96" s="4">
-        <v>3317.43296</v>
+        <v>3170.80639</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
-        <v>45493.47915509259</v>
+        <v>45492.3044212963</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E97" s="4">
-        <v>572.55</v>
+        <v>564.04</v>
       </c>
       <c r="F97" s="4">
-        <v>1570</v>
+        <v>1516</v>
       </c>
       <c r="G97" s="4">
-        <v>2.74212</v>
+        <v>2.68775</v>
       </c>
       <c r="H97" s="4">
-        <v>712288</v>
+        <v>694532</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J97" s="4">
-        <v>3159.5771</v>
+        <v>3112.61526</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
-        <v>45497.36373842593</v>
+        <v>45475.6571875</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E98" s="4">
-        <v>608.76</v>
+        <v>632.04</v>
       </c>
       <c r="F98" s="4">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="G98" s="4">
-        <v>2.5708</v>
+        <v>2.48402</v>
       </c>
       <c r="H98" s="4">
-        <v>713853</v>
+        <v>695735</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J98" s="4">
-        <v>3361.78579</v>
+        <v>3471.15736</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
-        <v>45500.36596064815</v>
+        <v>45495.38888888889</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E99" s="4">
-        <v>678.57</v>
+        <v>587.26</v>
       </c>
       <c r="F99" s="4">
-        <v>1570</v>
+        <v>1516</v>
       </c>
       <c r="G99" s="4">
-        <v>2.31369</v>
+        <v>2.58148</v>
       </c>
       <c r="H99" s="4">
-        <v>715423</v>
+        <v>696048</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J99" s="4">
-        <v>3749.17389</v>
+        <v>3243.05526</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
-        <v>45476.582233796296</v>
+        <v>45478.60648148148</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E100" s="4">
-        <v>539.39</v>
+        <v>67.66</v>
       </c>
       <c r="F100" s="4">
-        <v>1488</v>
+        <v>1581</v>
       </c>
       <c r="G100" s="4">
-        <v>2.75867</v>
+        <v>23.36683</v>
       </c>
       <c r="H100" s="4">
-        <v>723399</v>
+        <v>697316</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J100" s="4">
-        <v>2966.66118</v>
+        <v>371.58804</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
-        <v>45478.64902777778</v>
+        <v>45484.661053240736</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E101" s="4">
-        <v>500.21</v>
+        <v>682.23</v>
       </c>
       <c r="F101" s="4">
-        <v>1266</v>
+        <v>90</v>
       </c>
       <c r="G101" s="4">
-        <v>2.53094</v>
+        <v>0.13192</v>
       </c>
       <c r="H101" s="4">
-        <v>724665</v>
+        <v>697406</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J101" s="4">
-        <v>2751.17001</v>
+        <v>3756.69267</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
-        <v>45483.524618055555</v>
+        <v>45498.51493055555</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E102" s="4">
-        <v>544</v>
+        <v>602.36</v>
       </c>
       <c r="F102" s="4">
         <v>1490</v>
       </c>
       <c r="G102" s="4">
-        <v>2.73897</v>
+        <v>2.4736</v>
       </c>
       <c r="H102" s="4">
-        <v>726155</v>
+        <v>697538</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J102" s="4">
-        <v>2995.53056</v>
+        <v>3326.44275</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
-        <v>45486.51409722222</v>
+        <v>45489.680625</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E103" s="4">
-        <v>537.87</v>
+        <v>562.21</v>
       </c>
       <c r="F103" s="4">
-        <v>1487</v>
+        <v>1308</v>
       </c>
       <c r="G103" s="4">
-        <v>2.76461</v>
+        <v>2.32653</v>
       </c>
       <c r="H103" s="4">
-        <v>727642</v>
+        <v>698714</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J103" s="4">
-        <v>2961.77578</v>
+        <v>3100.22271</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
-        <v>45490.46969907408</v>
+        <v>45503.438310185185</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E104" s="4">
-        <v>537.12</v>
+        <v>564.88</v>
       </c>
       <c r="F104" s="4">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="G104" s="4">
-        <v>2.85039</v>
+        <v>2.69261</v>
       </c>
       <c r="H104" s="4">
-        <v>729173</v>
+        <v>699059</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J104" s="4">
-        <v>2961.86767</v>
+        <v>3121.02414</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
-        <v>45493.447858796295</v>
+        <v>45493.411527777775</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E105" s="4">
-        <v>586.34</v>
+        <v>636.86</v>
       </c>
       <c r="F105" s="4">
-        <v>1488</v>
+        <v>1586</v>
       </c>
       <c r="G105" s="4">
-        <v>2.53778</v>
+        <v>2.49034</v>
       </c>
       <c r="H105" s="4">
-        <v>730661</v>
+        <v>700300</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J105" s="4">
-        <v>3235.67625</v>
+        <v>3516.16775</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
-        <v>45497.64004629629</v>
+        <v>45497.61114583333</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E106" s="4">
-        <v>588.17</v>
+        <v>706.15</v>
       </c>
       <c r="F106" s="4">
-        <v>1489</v>
+        <v>1577</v>
       </c>
       <c r="G106" s="4">
-        <v>2.53158</v>
+        <v>2.23324</v>
       </c>
       <c r="H106" s="4">
-        <v>732150</v>
+        <v>701877</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J106" s="4">
-        <v>3248.0806</v>
+        <v>3899.60745</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
-        <v>45500.43591435185</v>
+        <v>45500.4940162037</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E107" s="4">
-        <v>569.35</v>
+        <v>683.1</v>
       </c>
       <c r="F107" s="4">
-        <v>1535</v>
+        <v>1583</v>
       </c>
       <c r="G107" s="4">
-        <v>2.69606</v>
+        <v>2.31738</v>
       </c>
       <c r="H107" s="4">
-        <v>733685</v>
+        <v>703460</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J107" s="4">
-        <v>3145.72138</v>
+        <v>3774.20264</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
-        <v>45478.52927083333</v>
+        <v>45504.44739583333</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E108" s="4">
-        <v>65.79</v>
+        <v>540.23</v>
       </c>
       <c r="F108" s="4">
-        <v>48</v>
+        <v>1310</v>
       </c>
       <c r="G108" s="4">
-        <v>0.72959</v>
+        <v>2.42489</v>
       </c>
       <c r="H108" s="4">
-        <v>752131</v>
+        <v>704770</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J108" s="4">
-        <v>361.31802</v>
+        <v>2982.66385</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
-        <v>45481.481932870374</v>
+        <v>45476.55829861111</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E109" s="4">
-        <v>674.44</v>
+        <v>645.07</v>
       </c>
       <c r="F109" s="4">
-        <v>1560</v>
+        <v>1575</v>
       </c>
       <c r="G109" s="4">
-        <v>2.31303</v>
+        <v>2.4416</v>
       </c>
       <c r="H109" s="4">
-        <v>753691</v>
+        <v>705242</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J109" s="4">
-        <v>3709.44023</v>
+        <v>3547.90435</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
-        <v>45484.65392361111</v>
+        <v>45479.344664351855</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E110" s="4">
-        <v>695.94</v>
+        <v>565.7</v>
       </c>
       <c r="F110" s="4">
-        <v>1561</v>
+        <v>1300</v>
       </c>
       <c r="G110" s="4">
-        <v>2.24301</v>
+        <v>2.29804</v>
       </c>
       <c r="H110" s="4">
-        <v>755252</v>
+        <v>706542</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J110" s="4">
-        <v>3833.62725</v>
+        <v>3111.36697</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
-        <v>45489.34961805555</v>
+        <v>45482.5840625</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E111" s="4">
-        <v>663.33</v>
+        <v>530.88</v>
       </c>
       <c r="F111" s="4">
-        <v>1556</v>
+        <v>1299</v>
       </c>
       <c r="G111" s="4">
-        <v>2.34574</v>
+        <v>2.44688</v>
       </c>
       <c r="H111" s="4">
-        <v>756808</v>
+        <v>707841</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J111" s="4">
-        <v>3652.62001</v>
+        <v>2923.28541</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
-        <v>45492.39039351852</v>
+        <v>45486.56673611111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E112" s="4">
-        <v>698.09</v>
+        <v>566.19</v>
       </c>
       <c r="F112" s="4">
-        <v>1567</v>
+        <v>1307</v>
       </c>
       <c r="G112" s="4">
-        <v>2.2447</v>
+        <v>2.30841</v>
       </c>
       <c r="H112" s="4">
-        <v>758375</v>
+        <v>709148</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J112" s="4">
-        <v>3849.79881</v>
+        <v>3117.71957</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
-        <v>45495.49736111111</v>
+        <v>45490.578680555554</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E113" s="4">
-        <v>633.7</v>
+        <v>601.6</v>
       </c>
       <c r="F113" s="4">
-        <v>1561</v>
+        <v>1570</v>
       </c>
       <c r="G113" s="4">
-        <v>2.46331</v>
+        <v>2.60971</v>
       </c>
       <c r="H113" s="4">
-        <v>759936</v>
+        <v>710718</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J113" s="4">
-        <v>3498.72107</v>
+        <v>3317.43296</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
-        <v>45498.39277777778</v>
+        <v>45493.47915509259</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E114" s="4">
-        <v>649.92</v>
+        <v>572.55</v>
       </c>
       <c r="F114" s="4">
-        <v>1556</v>
+        <v>1570</v>
       </c>
       <c r="G114" s="4">
-        <v>2.39414</v>
+        <v>2.74212</v>
       </c>
       <c r="H114" s="4">
-        <v>761492</v>
+        <v>712288</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J114" s="4">
-        <v>3589.08571</v>
+        <v>3159.5771</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
-        <v>45478.68407407407</v>
+        <v>45497.36373842593</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E115" s="4">
-        <v>113.85</v>
+        <v>608.76</v>
       </c>
       <c r="F115" s="4">
-        <v>293</v>
+        <v>1565</v>
       </c>
       <c r="G115" s="4">
-        <v>2.57356</v>
+        <v>2.5708</v>
       </c>
       <c r="H115" s="4">
-        <v>996471</v>
+        <v>713853</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J115" s="4">
-        <v>626.17842</v>
+        <v>3361.78579</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
-        <v>45481.423784722225</v>
+        <v>45500.36596064815</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E116" s="4">
-        <v>576.46</v>
+        <v>678.57</v>
       </c>
       <c r="F116" s="4">
-        <v>1668</v>
+        <v>1570</v>
       </c>
       <c r="G116" s="4">
-        <v>2.89352</v>
+        <v>2.31369</v>
       </c>
       <c r="H116" s="4">
-        <v>998139</v>
+        <v>715423</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J116" s="4">
-        <v>3170.54729</v>
+        <v>3749.17389</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
-        <v>45484.60333333333</v>
+        <v>45504.6290625</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E117" s="4">
-        <v>592.74</v>
+        <v>588.36</v>
       </c>
       <c r="F117" s="4">
-        <v>1546</v>
+        <v>1572</v>
       </c>
       <c r="G117" s="4">
-        <v>2.60823</v>
+        <v>2.67183</v>
       </c>
       <c r="H117" s="4">
-        <v>999685</v>
+        <v>716995</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J117" s="4">
-        <v>3263.91688</v>
+        <v>3250.75372</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
-        <v>45489.48792824074</v>
+        <v>45476.582233796296</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E118" s="4">
-        <v>497.41</v>
+        <v>539.39</v>
       </c>
       <c r="F118" s="4">
-        <v>1300</v>
+        <v>1488</v>
       </c>
       <c r="G118" s="4">
-        <v>2.61354</v>
+        <v>2.75867</v>
       </c>
       <c r="H118" s="4">
-        <v>1000985</v>
+        <v>723399</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J118" s="4">
-        <v>2742.89283</v>
+        <v>2966.66118</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
-        <v>45492.45929398148</v>
+        <v>45478.64902777778</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E119" s="4">
-        <v>565.62</v>
+        <v>500.21</v>
       </c>
       <c r="F119" s="4">
-        <v>1515</v>
+        <v>1266</v>
       </c>
       <c r="G119" s="4">
-        <v>2.67848</v>
+        <v>2.53094</v>
       </c>
       <c r="H119" s="4">
-        <v>1002500</v>
+        <v>724665</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J119" s="4">
-        <v>3121.33438</v>
+        <v>2751.17001</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
-        <v>45495.51702546296</v>
+        <v>45483.524618055555</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E120" s="4">
-        <v>560.09</v>
+        <v>544</v>
       </c>
       <c r="F120" s="4">
-        <v>1512</v>
+        <v>1490</v>
       </c>
       <c r="G120" s="4">
-        <v>2.69957</v>
+        <v>2.73897</v>
       </c>
       <c r="H120" s="4">
-        <v>1004012</v>
+        <v>726155</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J120" s="4">
-        <v>3093.01301</v>
+        <v>2995.53056</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
-        <v>45498.29690972222</v>
+        <v>45486.51409722222</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E121" s="4">
-        <v>527.07</v>
+        <v>537.87</v>
       </c>
       <c r="F121" s="4">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="G121" s="4">
-        <v>2.8592</v>
+        <v>2.76461</v>
       </c>
       <c r="H121" s="4">
-        <v>1005519</v>
+        <v>727642</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J121" s="4">
-        <v>2910.66501</v>
+        <v>2961.77578</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="2">
-        <v>45502.59337962963</v>
+        <v>45490.46969907408</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E122" s="4">
-        <v>540.78</v>
+        <v>537.12</v>
       </c>
       <c r="F122" s="4">
-        <v>1559</v>
+        <v>1531</v>
       </c>
       <c r="G122" s="4">
-        <v>2.88287</v>
+        <v>2.85039</v>
       </c>
       <c r="H122" s="4">
-        <v>1007078</v>
+        <v>729173</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J122" s="4">
-        <v>2987.86899</v>
+        <v>2961.86767</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="2">
-        <v>45474.51472222222</v>
+        <v>45493.447858796295</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E123" s="4">
-        <v>493.85</v>
+        <v>586.34</v>
       </c>
       <c r="F123" s="4">
-        <v>1281</v>
+        <v>1488</v>
       </c>
       <c r="G123" s="4">
-        <v>2.59391</v>
+        <v>2.53778</v>
       </c>
       <c r="H123" s="4">
-        <v>1092424</v>
+        <v>730661</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J123" s="4">
-        <v>2714.81197</v>
+        <v>3235.67625</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
-        <v>45477.36579861111</v>
+        <v>45497.64004629629</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E124" s="4">
-        <v>605.79</v>
+        <v>588.17</v>
       </c>
       <c r="F124" s="4">
-        <v>1548</v>
+        <v>1489</v>
       </c>
       <c r="G124" s="4">
-        <v>2.55534</v>
+        <v>2.53158</v>
       </c>
       <c r="H124" s="4">
-        <v>1093972</v>
+        <v>732150</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J124" s="4">
-        <v>3331.86317</v>
+        <v>3248.0806</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="2">
-        <v>45481.37752314815</v>
+        <v>45500.43591435185</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E125" s="4">
-        <v>544.49</v>
+        <v>569.35</v>
       </c>
       <c r="F125" s="4">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="G125" s="4">
-        <v>2.83201</v>
+        <v>2.69606</v>
       </c>
       <c r="H125" s="4">
-        <v>1095514</v>
+        <v>733685</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J125" s="4">
-        <v>2994.71133</v>
+        <v>3145.72138</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
-        <v>45485.59814814814</v>
+        <v>45504.507002314815</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E126" s="4">
-        <v>555.62</v>
+        <v>617.14</v>
       </c>
       <c r="F126" s="4">
-        <v>1509</v>
+        <v>1536</v>
       </c>
       <c r="G126" s="4">
-        <v>2.71588</v>
+        <v>2.4889</v>
       </c>
       <c r="H126" s="4">
-        <v>1097023</v>
+        <v>735221</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J126" s="4">
-        <v>3059.51597</v>
+        <v>3409.76639</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="2">
-        <v>45488.54011574074</v>
+        <v>45478.52927083333</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E127" s="4">
-        <v>562.4</v>
+        <v>65.79</v>
       </c>
       <c r="F127" s="4">
-        <v>1497</v>
+        <v>48</v>
       </c>
       <c r="G127" s="4">
-        <v>2.66181</v>
+        <v>0.72959</v>
       </c>
       <c r="H127" s="4">
-        <v>1098520</v>
+        <v>752131</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J127" s="4">
-        <v>3096.84998</v>
+        <v>361.31802</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
-        <v>45491.64513888889</v>
+        <v>45481.481932870374</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E128" s="4">
-        <v>552.17</v>
+        <v>674.44</v>
       </c>
       <c r="F128" s="4">
-        <v>1544</v>
+        <v>1560</v>
       </c>
       <c r="G128" s="4">
-        <v>2.79624</v>
+        <v>2.31303</v>
       </c>
       <c r="H128" s="4">
-        <v>1100064</v>
+        <v>753691</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J128" s="4">
-        <v>3047.11149</v>
+        <v>3709.44023</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
-        <v>45496.45140046296</v>
+        <v>45484.65392361111</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E129" s="4">
-        <v>580.7</v>
+        <v>695.94</v>
       </c>
       <c r="F129" s="4">
-        <v>1504</v>
+        <v>1561</v>
       </c>
       <c r="G129" s="4">
-        <v>2.58998</v>
+        <v>2.24301</v>
       </c>
       <c r="H129" s="4">
-        <v>1101568</v>
+        <v>755252</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J129" s="4">
-        <v>3206.82865</v>
+        <v>3833.62725</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
-        <v>45502.57142361111</v>
+        <v>45489.34961805555</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E130" s="4">
-        <v>554.21</v>
+        <v>663.33</v>
       </c>
       <c r="F130" s="4">
-        <v>3049</v>
+        <v>1556</v>
       </c>
       <c r="G130" s="4">
-        <v>5.50152</v>
+        <v>2.34574</v>
       </c>
       <c r="H130" s="4">
-        <v>1104617</v>
+        <v>756808</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J130" s="4">
-        <v>3062.07121</v>
+        <v>3652.62001</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
-        <v>45474.58986111111</v>
+        <v>45492.39039351852</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E131" s="4">
-        <v>534.88</v>
+        <v>698.09</v>
       </c>
       <c r="F131" s="4">
-        <v>1493</v>
+        <v>1567</v>
       </c>
       <c r="G131" s="4">
-        <v>2.79128</v>
+        <v>2.2447</v>
       </c>
       <c r="H131" s="4">
-        <v>1296291</v>
+        <v>758375</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J131" s="4">
-        <v>2940.36373</v>
+        <v>3849.79881</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
-        <v>45477.49554398148</v>
+        <v>45495.49736111111</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E132" s="4">
-        <v>511.9</v>
+        <v>633.7</v>
       </c>
       <c r="F132" s="4">
-        <v>1537</v>
+        <v>1561</v>
       </c>
       <c r="G132" s="4">
-        <v>3.00254</v>
+        <v>2.46331</v>
       </c>
       <c r="H132" s="4">
-        <v>1297828</v>
+        <v>759936</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J132" s="4">
-        <v>2815.46536</v>
+        <v>3498.72107</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
-        <v>45483.59030092593</v>
+        <v>45498.39277777778</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E133" s="4">
-        <v>503.56</v>
+        <v>649.92</v>
       </c>
       <c r="F133" s="4">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="G133" s="4">
-        <v>3.07014</v>
+        <v>2.39414</v>
       </c>
       <c r="H133" s="4">
-        <v>1299374</v>
+        <v>761492</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J133" s="4">
-        <v>2772.8481</v>
+        <v>3589.08571</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
-        <v>45486.59793981482</v>
+        <v>45503.49142361111</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E134" s="4">
-        <v>514.55</v>
+        <v>644.93</v>
       </c>
       <c r="F134" s="4">
-        <v>1538</v>
+        <v>1566</v>
       </c>
       <c r="G134" s="4">
-        <v>2.98902</v>
+        <v>2.42817</v>
       </c>
       <c r="H134" s="4">
-        <v>1300912</v>
+        <v>763058</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J134" s="4">
-        <v>2833.36443</v>
+        <v>3560.72302</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
-        <v>45489.30505787037</v>
+        <v>45478.68407407407</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E135" s="4">
-        <v>453.73</v>
+        <v>113.85</v>
       </c>
       <c r="F135" s="4">
-        <v>1268</v>
+        <v>293</v>
       </c>
       <c r="G135" s="4">
-        <v>2.79461</v>
+        <v>2.57356</v>
       </c>
       <c r="H135" s="4">
-        <v>1302180</v>
+        <v>996471</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J135" s="4">
-        <v>2498.45971</v>
+        <v>626.17842</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
-        <v>45493.38474537037</v>
+        <v>45481.423784722225</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E136" s="4">
-        <v>570.27</v>
+        <v>576.46</v>
       </c>
       <c r="F136" s="4">
-        <v>1544</v>
+        <v>1668</v>
       </c>
       <c r="G136" s="4">
-        <v>2.70749</v>
+        <v>2.89352</v>
       </c>
       <c r="H136" s="4">
-        <v>1303724</v>
+        <v>998139</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J136" s="4">
-        <v>3146.99508</v>
+        <v>3170.54729</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
-        <v>45497.38513888889</v>
+        <v>45484.60333333333</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E137" s="4">
-        <v>509.94</v>
+        <v>592.74</v>
       </c>
       <c r="F137" s="4">
-        <v>1539</v>
+        <v>1546</v>
       </c>
       <c r="G137" s="4">
-        <v>3.018</v>
+        <v>2.60823</v>
       </c>
       <c r="H137" s="4">
-        <v>1305263</v>
+        <v>999685</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J137" s="4">
-        <v>2816.06716</v>
+        <v>3263.91688</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
-        <v>45500.463009259256</v>
+        <v>45489.48792824074</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E138" s="4">
-        <v>510.55</v>
+        <v>497.41</v>
       </c>
       <c r="F138" s="4">
-        <v>1490</v>
+        <v>1300</v>
       </c>
       <c r="G138" s="4">
-        <v>2.91842</v>
+        <v>2.61354</v>
       </c>
       <c r="H138" s="4">
-        <v>1306753</v>
+        <v>1000985</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J138" s="4">
-        <v>2820.84491</v>
+        <v>2742.89283</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
-        <v>45475.43274305556</v>
+        <v>45492.45929398148</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E139" s="4">
-        <v>570.9</v>
+        <v>565.62</v>
       </c>
       <c r="F139" s="4">
-        <v>1557</v>
+        <v>1515</v>
       </c>
       <c r="G139" s="4">
-        <v>2.72727</v>
+        <v>2.67848</v>
       </c>
       <c r="H139" s="4">
-        <v>2032019</v>
+        <v>1002500</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J139" s="4">
-        <v>3138.37432</v>
+        <v>3121.33438</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
-        <v>45478.32895833333</v>
+        <v>45495.51702546296</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E140" s="4">
-        <v>518.72</v>
+        <v>560.09</v>
       </c>
       <c r="F140" s="4">
-        <v>1556</v>
+        <v>1512</v>
       </c>
       <c r="G140" s="4">
-        <v>2.99969</v>
+        <v>2.69957</v>
       </c>
       <c r="H140" s="4">
-        <v>2033575</v>
+        <v>1004012</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J140" s="4">
-        <v>2848.80505</v>
+        <v>3093.01301</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
-        <v>45481.50015046296</v>
+        <v>45498.29690972222</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E141" s="4">
-        <v>586.02</v>
+        <v>527.07</v>
       </c>
       <c r="F141" s="4">
-        <v>1567</v>
+        <v>1507</v>
       </c>
       <c r="G141" s="4">
-        <v>2.67397</v>
+        <v>2.8592</v>
       </c>
       <c r="H141" s="4">
-        <v>2035142</v>
+        <v>1005519</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J141" s="4">
-        <v>3223.12758</v>
+        <v>2910.66501</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
-        <v>45484.3206712963</v>
+        <v>45502.59337962963</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E142" s="4">
-        <v>516.93</v>
+        <v>540.78</v>
       </c>
       <c r="F142" s="4">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="G142" s="4">
-        <v>3.01008</v>
+        <v>2.88287</v>
       </c>
       <c r="H142" s="4">
-        <v>2036698</v>
+        <v>1007078</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J142" s="4">
-        <v>2847.53992</v>
+        <v>2987.86899</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
-        <v>45488.49800925926</v>
+        <v>45474.51472222222</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E143" s="4">
-        <v>540.46</v>
+        <v>493.85</v>
       </c>
       <c r="F143" s="4">
-        <v>1568</v>
+        <v>1281</v>
       </c>
       <c r="G143" s="4">
-        <v>2.90123</v>
+        <v>2.59391</v>
       </c>
       <c r="H143" s="4">
-        <v>2038266</v>
+        <v>1092424</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J143" s="4">
-        <v>2976.03759</v>
+        <v>2714.81197</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
-        <v>45491.469571759255</v>
+        <v>45477.36579861111</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E144" s="4">
-        <v>525.18</v>
+        <v>605.79</v>
       </c>
       <c r="F144" s="4">
-        <v>1541</v>
+        <v>1548</v>
       </c>
       <c r="G144" s="4">
-        <v>2.93423</v>
+        <v>2.55534</v>
       </c>
       <c r="H144" s="4">
-        <v>2039807</v>
+        <v>1093972</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J144" s="4">
-        <v>2896.24166</v>
+        <v>3331.86317</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
-        <v>45493.50375</v>
+        <v>45481.37752314815</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E145" s="4">
-        <v>485.1</v>
+        <v>544.49</v>
       </c>
       <c r="F145" s="4">
-        <v>1272</v>
+        <v>1542</v>
       </c>
       <c r="G145" s="4">
-        <v>2.62214</v>
+        <v>2.83201</v>
       </c>
       <c r="H145" s="4">
-        <v>2041079</v>
+        <v>1095514</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J145" s="4">
-        <v>2676.99039</v>
+        <v>2994.71133</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
-        <v>45499.300879629634</v>
+        <v>45485.59814814814</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E146" s="4">
-        <v>533.85</v>
+        <v>555.62</v>
       </c>
       <c r="F146" s="4">
-        <v>1538</v>
+        <v>1509</v>
       </c>
       <c r="G146" s="4">
-        <v>2.88096</v>
+        <v>2.71588</v>
       </c>
       <c r="H146" s="4">
-        <v>2042617</v>
+        <v>1097023</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J146" s="4">
-        <v>2949.16891</v>
+        <v>3059.51597</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="2">
-        <v>45502.52457175926</v>
+        <v>45488.54011574074</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E147" s="4">
-        <v>482.4</v>
+        <v>562.4</v>
       </c>
       <c r="F147" s="4">
-        <v>1277</v>
+        <v>1497</v>
       </c>
       <c r="G147" s="4">
-        <v>2.64718</v>
+        <v>2.66181</v>
       </c>
       <c r="H147" s="4">
-        <v>2043894</v>
+        <v>1098520</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J147" s="4">
-        <v>2663.37864</v>
+        <v>3096.84998</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="2">
-        <v>45474.64094907408</v>
+        <v>45491.64513888889</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E148" s="4">
-        <v>559.18</v>
+        <v>552.17</v>
       </c>
       <c r="F148" s="4">
-        <v>1534</v>
+        <v>1544</v>
       </c>
       <c r="G148" s="4">
-        <v>2.7433</v>
+        <v>2.79624</v>
       </c>
       <c r="H148" s="4">
-        <v>2079413</v>
+        <v>1100064</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J148" s="4">
-        <v>3073.94666</v>
+        <v>3047.11149</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
-        <v>45477.30704861111</v>
+        <v>45496.45140046296</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E149" s="4">
-        <v>533.31</v>
+        <v>580.7</v>
       </c>
       <c r="F149" s="4">
-        <v>1534</v>
+        <v>1504</v>
       </c>
       <c r="G149" s="4">
-        <v>2.87638</v>
+        <v>2.58998</v>
       </c>
       <c r="H149" s="4">
-        <v>2080947</v>
+        <v>1101568</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J149" s="4">
-        <v>2928.93319</v>
+        <v>3206.82865</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="2">
-        <v>45482.30540509259</v>
+        <v>45499.54166666667</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E150" s="4">
-        <v>513.71</v>
+        <v>562</v>
       </c>
       <c r="F150" s="4">
-        <v>1275</v>
+        <v>1544</v>
       </c>
       <c r="G150" s="4">
-        <v>2.48195</v>
+        <v>2.74733</v>
       </c>
       <c r="H150" s="4">
-        <v>2082222</v>
+        <v>1103112</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J150" s="4">
-        <v>2829.71503</v>
+        <v>3102.8582</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="2">
-        <v>45485.52986111111</v>
+        <v>45502.57142361111</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E151" s="4">
-        <v>547.79</v>
+        <v>554.21</v>
       </c>
       <c r="F151" s="4">
-        <v>1541</v>
+        <v>1505</v>
       </c>
       <c r="G151" s="4">
-        <v>2.81312</v>
+        <v>2.71558</v>
       </c>
       <c r="H151" s="4">
-        <v>2083763</v>
+        <v>1104617</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J151" s="4">
-        <v>3023.539</v>
+        <v>3062.07121</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
-        <v>45488.360439814816</v>
+        <v>45474.58986111111</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E152" s="4">
-        <v>562.28</v>
+        <v>534.88</v>
       </c>
       <c r="F152" s="4">
-        <v>1534</v>
+        <v>1493</v>
       </c>
       <c r="G152" s="4">
-        <v>2.72818</v>
+        <v>2.79128</v>
       </c>
       <c r="H152" s="4">
-        <v>2085297</v>
+        <v>1296291</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J152" s="4">
-        <v>3096.1892</v>
+        <v>2940.36373</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="2">
-        <v>45491.36929398148</v>
+        <v>45477.49554398148</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E153" s="4">
-        <v>505.16</v>
+        <v>511.9</v>
       </c>
       <c r="F153" s="4">
-        <v>1270</v>
+        <v>1537</v>
       </c>
       <c r="G153" s="4">
-        <v>2.51405</v>
+        <v>3.00254</v>
       </c>
       <c r="H153" s="4">
-        <v>2086567</v>
+        <v>1297828</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J153" s="4">
-        <v>2785.83616</v>
+        <v>2815.46536</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="2">
-        <v>45496.5372800926</v>
+        <v>45483.59030092593</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E154" s="4">
-        <v>559.9</v>
+        <v>503.56</v>
       </c>
       <c r="F154" s="4">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G154" s="4">
-        <v>2.76299</v>
+        <v>3.07014</v>
       </c>
       <c r="H154" s="4">
-        <v>2088114</v>
+        <v>1299374</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J154" s="4">
-        <v>3091.96377</v>
+        <v>2772.8481</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="2">
-        <v>45499.3331712963</v>
+        <v>45486.59793981482</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E155" s="4">
-        <v>524.09</v>
+        <v>514.55</v>
       </c>
       <c r="F155" s="4">
-        <v>1271</v>
+        <v>1538</v>
       </c>
       <c r="G155" s="4">
-        <v>2.42516</v>
+        <v>2.98902</v>
       </c>
       <c r="H155" s="4">
-        <v>2089385</v>
+        <v>1300912</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J155" s="4">
-        <v>2895.25135</v>
+        <v>2833.36443</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="2">
+        <v>45489.30505787037</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" s="4">
+        <v>453.73</v>
+      </c>
+      <c r="F156" s="4">
+        <v>1268</v>
+      </c>
+      <c r="G156" s="4">
+        <v>2.79461</v>
+      </c>
+      <c r="H156" s="4">
+        <v>1302180</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J156" s="4">
+        <v>2498.45971</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="2">
+        <v>45493.38474537037</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" s="4">
+        <v>570.27</v>
+      </c>
+      <c r="F157" s="4">
+        <v>1544</v>
+      </c>
+      <c r="G157" s="4">
+        <v>2.70749</v>
+      </c>
+      <c r="H157" s="4">
+        <v>1303724</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J157" s="4">
+        <v>3146.99508</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="2">
+        <v>45497.38513888889</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" s="4">
+        <v>509.94</v>
+      </c>
+      <c r="F158" s="4">
+        <v>1539</v>
+      </c>
+      <c r="G158" s="4">
+        <v>3.018</v>
+      </c>
+      <c r="H158" s="4">
+        <v>1305263</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J158" s="4">
+        <v>2816.06716</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="2">
+        <v>45500.463009259256</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" s="4">
+        <v>510.55</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1490</v>
+      </c>
+      <c r="G159" s="4">
+        <v>2.91842</v>
+      </c>
+      <c r="H159" s="4">
+        <v>1306753</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J159" s="4">
+        <v>2820.84491</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="2">
+        <v>45504.48601851852</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" s="4">
+        <v>508.74</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1540</v>
+      </c>
+      <c r="G160" s="4">
+        <v>3.02709</v>
+      </c>
+      <c r="H160" s="4">
+        <v>1308293</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J160" s="4">
+        <v>2810.84446</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="2">
+        <v>45475.43274305556</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" s="4">
+        <v>570.9</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1557</v>
+      </c>
+      <c r="G161" s="4">
+        <v>2.72727</v>
+      </c>
+      <c r="H161" s="4">
+        <v>2032019</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J161" s="4">
+        <v>3138.37432</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="2">
+        <v>45478.32895833333</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="4">
+        <v>518.72</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1556</v>
+      </c>
+      <c r="G162" s="4">
+        <v>2.99969</v>
+      </c>
+      <c r="H162" s="4">
+        <v>2033575</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J162" s="4">
+        <v>2848.80505</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="2">
+        <v>45481.50015046296</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="4">
+        <v>586.02</v>
+      </c>
+      <c r="F163" s="4">
+        <v>1567</v>
+      </c>
+      <c r="G163" s="4">
+        <v>2.67397</v>
+      </c>
+      <c r="H163" s="4">
+        <v>2035142</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J163" s="4">
+        <v>3223.12758</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="2">
+        <v>45484.3206712963</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E164" s="4">
+        <v>516.93</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1556</v>
+      </c>
+      <c r="G164" s="4">
+        <v>3.01008</v>
+      </c>
+      <c r="H164" s="4">
+        <v>2036698</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J164" s="4">
+        <v>2847.53992</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="2">
+        <v>45488.49800925926</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E165" s="4">
+        <v>540.46</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1568</v>
+      </c>
+      <c r="G165" s="4">
+        <v>2.90123</v>
+      </c>
+      <c r="H165" s="4">
+        <v>2038266</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J165" s="4">
+        <v>2976.03759</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="2">
+        <v>45491.469571759255</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E166" s="4">
+        <v>525.18</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1541</v>
+      </c>
+      <c r="G166" s="4">
+        <v>2.93423</v>
+      </c>
+      <c r="H166" s="4">
+        <v>2039807</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J166" s="4">
+        <v>2896.24166</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="2">
+        <v>45493.50375</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" s="4">
+        <v>485.1</v>
+      </c>
+      <c r="F167" s="4">
+        <v>1272</v>
+      </c>
+      <c r="G167" s="4">
+        <v>2.62214</v>
+      </c>
+      <c r="H167" s="4">
+        <v>2041079</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J167" s="4">
+        <v>2676.99039</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="2">
+        <v>45499.300879629634</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E168" s="4">
+        <v>533.85</v>
+      </c>
+      <c r="F168" s="4">
+        <v>1538</v>
+      </c>
+      <c r="G168" s="4">
+        <v>2.88096</v>
+      </c>
+      <c r="H168" s="4">
+        <v>2042617</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J168" s="4">
+        <v>2949.16891</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="2">
+        <v>45502.52457175926</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E169" s="4">
+        <v>482.4</v>
+      </c>
+      <c r="F169" s="4">
+        <v>1277</v>
+      </c>
+      <c r="G169" s="4">
+        <v>2.64718</v>
+      </c>
+      <c r="H169" s="4">
+        <v>2043894</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J169" s="4">
+        <v>2663.37864</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="2">
+        <v>45504.5240625</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E170" s="4">
+        <v>474.49</v>
+      </c>
+      <c r="F170" s="4">
+        <v>1271</v>
+      </c>
+      <c r="G170" s="4">
+        <v>2.67867</v>
+      </c>
+      <c r="H170" s="4">
+        <v>2045165</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J170" s="4">
+        <v>2621.60944</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="2">
+        <v>45474.64094907408</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E171" s="4">
+        <v>559.18</v>
+      </c>
+      <c r="F171" s="4">
+        <v>1534</v>
+      </c>
+      <c r="G171" s="4">
+        <v>2.7433</v>
+      </c>
+      <c r="H171" s="4">
+        <v>2079413</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J171" s="4">
+        <v>3073.94666</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="2">
+        <v>45477.30704861111</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E172" s="4">
+        <v>533.31</v>
+      </c>
+      <c r="F172" s="4">
+        <v>1534</v>
+      </c>
+      <c r="G172" s="4">
+        <v>2.87638</v>
+      </c>
+      <c r="H172" s="4">
+        <v>2080947</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J172" s="4">
+        <v>2928.93319</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="2">
+        <v>45482.30540509259</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E173" s="4">
+        <v>513.71</v>
+      </c>
+      <c r="F173" s="4">
+        <v>1275</v>
+      </c>
+      <c r="G173" s="4">
+        <v>2.48195</v>
+      </c>
+      <c r="H173" s="4">
+        <v>2082222</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J173" s="4">
+        <v>2829.71503</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="2">
+        <v>45485.52986111111</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E174" s="4">
+        <v>547.79</v>
+      </c>
+      <c r="F174" s="4">
+        <v>1541</v>
+      </c>
+      <c r="G174" s="4">
+        <v>2.81312</v>
+      </c>
+      <c r="H174" s="4">
+        <v>2083763</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J174" s="4">
+        <v>3023.53875</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="2">
+        <v>45488.360439814816</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E175" s="4">
+        <v>562.28</v>
+      </c>
+      <c r="F175" s="4">
+        <v>1534</v>
+      </c>
+      <c r="G175" s="4">
+        <v>2.72818</v>
+      </c>
+      <c r="H175" s="4">
+        <v>2085297</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J175" s="4">
+        <v>3096.1892</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="2">
+        <v>45491.36929398148</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E176" s="4">
+        <v>505.16</v>
+      </c>
+      <c r="F176" s="4">
+        <v>1270</v>
+      </c>
+      <c r="G176" s="4">
+        <v>2.51405</v>
+      </c>
+      <c r="H176" s="4">
+        <v>2086567</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J176" s="4">
+        <v>2785.83616</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="2">
+        <v>45496.5372800926</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E177" s="4">
+        <v>559.9</v>
+      </c>
+      <c r="F177" s="4">
+        <v>1547</v>
+      </c>
+      <c r="G177" s="4">
+        <v>2.76299</v>
+      </c>
+      <c r="H177" s="4">
+        <v>2088114</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J177" s="4">
+        <v>3091.96377</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="2">
+        <v>45499.3331712963</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E178" s="4">
+        <v>524.09</v>
+      </c>
+      <c r="F178" s="4">
+        <v>1271</v>
+      </c>
+      <c r="G178" s="4">
+        <v>2.42516</v>
+      </c>
+      <c r="H178" s="4">
+        <v>2089385</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J178" s="4">
+        <v>2895.25135</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="2">
         <v>45502.61342592593</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E179" s="4">
         <v>559.41</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F179" s="4">
         <v>1547</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G179" s="4">
         <v>2.76541</v>
       </c>
-      <c r="H156" s="4">
+      <c r="H179" s="4">
         <v>2090932</v>
       </c>
-      <c r="I156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J156" s="4">
+      <c r="I179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J179" s="4">
         <v>3088.55855</v>
       </c>
     </row>
